--- a/biology/Zoologie/Cricotopus/Cricotopus.xlsx
+++ b/biology/Zoologie/Cricotopus/Cricotopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cricotopus est un genre de diptères nématocères de la famille des Chironomidae et de la sous-famille des Orthocladiinae. 
-Des larves de certaines espèces sont connues pour coloniser des colonies globulaires de la cyanobactérie Nostoc verrucosum. Le phénomène a été noté dans un torrent de montagne espagnol[2]. La découverte date d’octobre 1998. Dans cet environnement, la larve n’a été trouvée qu’à l’intérieur de globules de nostoc et jamais sur le substrat[2].
+Des larves de certaines espèces sont connues pour coloniser des colonies globulaires de la cyanobactérie Nostoc verrucosum. Le phénomène a été noté dans un torrent de montagne espagnol. La découverte date d’octobre 1998. Dans cet environnement, la larve n’a été trouvée qu’à l’intérieur de globules de nostoc et jamais sur le substrat.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Aperçu des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cricotopus acornis - 
 Cricotopus albitarsis - 
